--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -843,7 +843,7 @@
     <t>ServiceRequest codes</t>
   </si>
   <si>
-    <t>http://fhir.cqgc.ferlab.bio/CodeSystem/gene-panel-code</t>
+    <t>http://fhir.cqgc.ferlab.bio/CodeSystem/analysis-request-code</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -6446,7 +6446,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -843,7 +843,7 @@
     <t>ServiceRequest codes</t>
   </si>
   <si>
-    <t>http://fhir.cqgc.ferlab.bio/CodeSystem/analysis-request-code</t>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/analysis-request-code</t>
   </si>
   <si>
     <t>Request.code</t>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -1723,38 +1723,38 @@
     <col min="4" max="4" width="21.2578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.44140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -259,10 +259,6 @@
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -279,1093 +275,1097 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>request-statutReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {request-statusReason}
+</t>
+  </si>
+  <si>
+    <t>Captures the reason for the current state of the resource</t>
+  </si>
+  <si>
+    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>resident-supervisor</t>
+  </si>
+  <si>
+    <t>resident_supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/resident-supervisor}
+</t>
+  </si>
+  <si>
+    <t>Resident Supervisor</t>
+  </si>
+  <si>
+    <t>Refers to the supervisor of the resident practitioner</t>
+  </si>
+  <si>
+    <t>procedure-directedBy</t>
+  </si>
+  <si>
+    <t>procedure_directedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {procedure-directedBy}
+</t>
+  </si>
+  <si>
+    <t>Procedure DirectedBy</t>
+  </si>
+  <si>
+    <t>For example, a long term care beneficiary who coordinates the services related to their activities of daily living.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>ServiceRequest codes</t>
+  </si>
+  <si>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/analysis-request-code</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.orderDetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailed instructions
+</t>
+  </si>
+  <si>
+    <t>Additional order information</t>
+  </si>
+  <si>
+    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
+  </si>
+  <si>
+    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
+  </si>
+  <si>
+    <t>Codified order entry details which are based on order context.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prr-1
+</t>
+  </si>
+  <si>
+    <t>NTE</t>
+  </si>
+  <si>
+    <t>ServiceRequest.quantity[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+RatioRange</t>
+  </si>
+  <si>
+    <t>Service amount</t>
+  </si>
+  <si>
+    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
+  </si>
+  <si>
+    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>ServiceRequest.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+</t>
+  </si>
+  <si>
+    <t>Individual or Entity the service is ordered for</t>
+  </si>
+  <si>
+    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
+  </si>
+  <si>
+    <t>Request.subject</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.subject</t>
+  </si>
+  <si>
+    <t>ServiceRequest.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter in which the request was created</t>
+  </si>
+  <si>
+    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
+  </si>
+  <si>
+    <t>Request.encounter</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.encounter</t>
+  </si>
+  <si>
+    <t>ServiceRequest.occurrence[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule
+</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>When service should occur</t>
+  </si>
+  <si>
+    <t>The date/time at which the requested service should occur.</t>
+  </si>
+  <si>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>TQ1/TQ2, OBR-7/OBR-8</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Procedure.procedureSchedule</t>
+  </si>
+  <si>
+    <t>ServiceRequest.asNeeded[x]</t>
+  </si>
+  <si>
+    <t>boolean
+CodeableConcept</t>
+  </si>
+  <si>
+    <t>Preconditions for service</t>
+  </si>
+  <si>
+    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+  </si>
+  <si>
+    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
+  </si>
+  <si>
+    <t>Proposal.prnReason.reason</t>
+  </si>
+  <si>
+    <t>ServiceRequest.authoredOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedOn
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date request signed</t>
+  </si>
+  <si>
+    <t>When the request transitioned to being actionable.</t>
+  </si>
+  <si>
+    <t>Request.authoredOn</t>
+  </si>
+  <si>
+    <t>ORC.9,  RF1-7 / RF1-9</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Proposal.proposedAtTime</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requester</t>
+  </si>
+  <si>
+    <t>author
+orderer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+</t>
+  </si>
+  <si>
+    <t>Who/what is requesting service</t>
+  </si>
+  <si>
+    <t>The individual who initiated the request and has responsibility for its activation.</t>
+  </si>
+  <si>
+    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
+  </si>
+  <si>
+    <t>Request.requester</t>
+  </si>
+  <si>
+    <t>ORC.12, PRT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.statementAuthor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specialty
+</t>
+  </si>
+  <si>
+    <t>Performer role</t>
+  </si>
+  <si>
+    <t>Desired type of performer for doing the requested service.</t>
+  </si>
+  <si>
+    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
+  </si>
+  <si>
+    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>Request.performerType</t>
+  </si>
+  <si>
+    <t>PRT, RF!-3</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>ServiceRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request recipient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Requested performer</t>
+  </si>
+  <si>
+    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
+  </si>
+  <si>
+    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>PRT, Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationCode</t>
+  </si>
+  <si>
+    <t>Requested location</t>
+  </si>
+  <si>
+    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>A location type where services are delivered.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.locationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonCode</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for procedure or service</t>
+  </si>
+  <si>
+    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+  </si>
+  <si>
+    <t>Request.reasonCode</t>
+  </si>
+  <si>
+    <t>ORC.16, RF1-10</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+</t>
+  </si>
+  <si>
+    <t>Explanation/Justification for service or service</t>
+  </si>
+  <si>
+    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
+  </si>
+  <si>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+  </si>
+  <si>
+    <t>Request.reasonReference</t>
+  </si>
+  <si>
+    <t>ORC.16</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+</t>
+  </si>
+  <si>
+    <t>Associated insurance coverage</t>
+  </si>
+  <si>
+    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
+  </si>
+  <si>
+    <t>Request.insurance</t>
+  </si>
+  <si>
+    <t>IN1/IN2</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COVBY].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.supportingInfo</t>
+  </si>
+  <si>
+    <t>Ask at order entry question
+AOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional clinical information</t>
+  </si>
+  <si>
+    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
+  </si>
+  <si>
+    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
+  </si>
+  <si>
+    <t>Request.supportingInfo</t>
+  </si>
+  <si>
+    <t>Accompanying segments</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>Procedure Samples</t>
+  </si>
+  <si>
+    <t>One or more specimens that the laboratory procedure will use.</t>
+  </si>
+  <si>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SPC].role</t>
+  </si>
+  <si>
+    <t>ServiceRequest.bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location
+</t>
+  </si>
+  <si>
+    <t>Location on Body</t>
+  </si>
+  <si>
+    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
+  </si>
+  <si>
+    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>Procedure.targetBodySite</t>
+  </si>
+  <si>
+    <t>ServiceRequest.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
+  </si>
+  <si>
+    <t>Request.note</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.additionalText</t>
+  </si>
+  <si>
+    <t>ServiceRequest.patientInstruction</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>request-statutReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {request-statusReason}
-</t>
-  </si>
-  <si>
-    <t>Captures the reason for the current state of the resource</t>
-  </si>
-  <si>
-    <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>resident-supervisor</t>
-  </si>
-  <si>
-    <t>resident_supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/resident-supervisor}
-</t>
-  </si>
-  <si>
-    <t>Resident Supervisor</t>
-  </si>
-  <si>
-    <t>Refers to the supervisor of the resident practitioner</t>
-  </si>
-  <si>
-    <t>procedure-directedBy</t>
-  </si>
-  <si>
-    <t>procedure_directedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {procedure-directedBy}
-</t>
-  </si>
-  <si>
-    <t>Procedure DirectedBy</t>
-  </si>
-  <si>
-    <t>For example, a long term care beneficiary who coordinates the services related to their activities of daily living.</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>ServiceRequest codes</t>
-  </si>
-  <si>
-    <t>http://fhir.cqgc.ferlab.bio/ValueSet/analysis-request-code</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.orderDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detailed instructions
-</t>
-  </si>
-  <si>
-    <t>Additional order information</t>
-  </si>
-  <si>
-    <t>Additional details and instructions about the how the services are to be delivered.   For example, and order for a urinary catheter may have an order detail for an external or indwelling catheter, or an order for a bandage may require additional instructions specifying how the bandage should be applied.</t>
-  </si>
-  <si>
-    <t>For information from the medical record intended to support the delivery of the requested services, use the `supportingInformation` element.</t>
-  </si>
-  <si>
-    <t>Codified order entry details which are based on order context.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prr-1
-</t>
-  </si>
-  <si>
-    <t>NTE</t>
-  </si>
-  <si>
-    <t>ServiceRequest.quantity[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-RatioRange</t>
-  </si>
-  <si>
-    <t>Service amount</t>
-  </si>
-  <si>
-    <t>An amount of service being requested which can be a quantity ( for example $1,500 home modification), a ratio ( for example, 20 half day visits per month), or a range (2.0 to 1.8 Gy per fraction).</t>
-  </si>
-  <si>
-    <t>When ordering a service the number of service items may need to be specified separately from the the service item.</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>ServiceRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
-</t>
-  </si>
-  <si>
-    <t>Individual or Entity the service is ordered for</t>
-  </si>
-  <si>
-    <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
-  </si>
-  <si>
-    <t>Request.subject</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>ServiceRequest.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter in which the request was created</t>
-  </si>
-  <si>
-    <t>An encounter that provides additional information about the healthcare context in which this request is made.</t>
-  </si>
-  <si>
-    <t>Request.encounter</t>
-  </si>
-  <si>
-    <t>PV1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.encounter</t>
-  </si>
-  <si>
-    <t>ServiceRequest.occurrence[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schedule
-</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>When service should occur</t>
-  </si>
-  <si>
-    <t>The date/time at which the requested service should occur.</t>
-  </si>
-  <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>TQ1/TQ2, OBR-7/OBR-8</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>ServiceRequest.asNeeded[x]</t>
-  </si>
-  <si>
-    <t>boolean
-CodeableConcept</t>
-  </si>
-  <si>
-    <t>Preconditions for service</t>
-  </si>
-  <si>
-    <t>If a CodeableConcept is present, it indicates the pre-condition for performing the service.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
-  </si>
-  <si>
-    <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
-  </si>
-  <si>
-    <t>Proposal.prnReason.reason</t>
-  </si>
-  <si>
-    <t>ServiceRequest.authoredOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orderedOn
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date request signed</t>
-  </si>
-  <si>
-    <t>When the request transitioned to being actionable.</t>
-  </si>
-  <si>
-    <t>Request.authoredOn</t>
-  </si>
-  <si>
-    <t>ORC.9,  RF1-7 / RF1-9</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Proposal.proposedAtTime</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requester</t>
-  </si>
-  <si>
-    <t>author
-orderer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Who/what is requesting service</t>
-  </si>
-  <si>
-    <t>The individual who initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>This not the dispatcher, but rather who is the authorizer.  This element is not intended to handle delegation which would generally be managed through the Provenance resource.</t>
-  </si>
-  <si>
-    <t>Request.requester</t>
-  </si>
-  <si>
-    <t>ORC.12, PRT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.statementAuthor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performerType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specialty
-</t>
-  </si>
-  <si>
-    <t>Performer role</t>
-  </si>
-  <si>
-    <t>Desired type of performer for doing the requested service.</t>
-  </si>
-  <si>
-    <t>This is a  role, not  a participation type.  In other words, does not describe the task but describes the capacity.  For example, “compounding pharmacy”, “psychiatrist” or “internal referral”.</t>
-  </si>
-  <si>
-    <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>Request.performerType</t>
-  </si>
-  <si>
-    <t>PRT, RF!-3</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>ServiceRequest.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">request recipient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Requested performer</t>
-  </si>
-  <si>
-    <t>The desired performer for doing the requested service.  For example, the surgeon, dermatopathologist, endoscopist, etc.</t>
-  </si>
-  <si>
-    <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>PRT, Practitioner: PRD-2/PRD-7 where PRD-3 = RT; Organization: PRD-10 where PRD-3 = RT</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationCode</t>
-  </si>
-  <si>
-    <t>Requested location</t>
-  </si>
-  <si>
-    <t>The preferred location(s) where the procedure should actually happen in coded or free text form. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>A location type where services are delivered.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.locationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>A reference to the the preferred location(s) where the procedure should actually happen. E.g. at home or nursing day care center.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for procedure or service</t>
-  </si>
-  <si>
-    <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
-  </si>
-  <si>
-    <t>Request.reasonCode</t>
-  </si>
-  <si>
-    <t>ORC.16, RF1-10</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ServiceRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
-</t>
-  </si>
-  <si>
-    <t>Explanation/Justification for service or service</t>
-  </si>
-  <si>
-    <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
-  </si>
-  <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
-  </si>
-  <si>
-    <t>Request.reasonReference</t>
-  </si>
-  <si>
-    <t>ORC.16</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
-</t>
-  </si>
-  <si>
-    <t>Associated insurance coverage</t>
-  </si>
-  <si>
-    <t>Insurance plans, coverage extensions, pre-authorizations and/or pre-determinations that may be needed for delivering the requested service.</t>
-  </si>
-  <si>
-    <t>Request.insurance</t>
-  </si>
-  <si>
-    <t>IN1/IN2</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COVBY].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.supportingInfo</t>
-  </si>
-  <si>
-    <t>Ask at order entry question
-AOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional clinical information</t>
-  </si>
-  <si>
-    <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
-  </si>
-  <si>
-    <t>To represent information about how the services are to be delivered use the `instructions` element.</t>
-  </si>
-  <si>
-    <t>Request.supportingInfo</t>
-  </si>
-  <si>
-    <t>Accompanying segments</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>Procedure Samples</t>
-  </si>
-  <si>
-    <t>One or more specimens that the laboratory procedure will use.</t>
-  </si>
-  <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SPC].role</t>
-  </si>
-  <si>
-    <t>ServiceRequest.bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location
-</t>
-  </si>
-  <si>
-    <t>Location on Body</t>
-  </si>
-  <si>
-    <t>Anatomic location where the procedure should be performed. This is the target site.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in the code found in ServiceRequest.code.  If the use case requires BodySite to be handled as a separate resource instead of an inline coded element (e.g. to identify and track separately)  then use the standard extension [procedure-targetBodyStructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
-  </si>
-  <si>
-    <t>Knowing where the procedure is performed is important for tracking if multiple sites are possible.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Procedure.targetBodySite</t>
-  </si>
-  <si>
-    <t>ServiceRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
-  </si>
-  <si>
-    <t>Request.note</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=ANNGEN, moodCode=EVN].value[xsi:type=ST]</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.additionalText</t>
-  </si>
-  <si>
-    <t>ServiceRequest.patientInstruction</t>
   </si>
   <si>
     <t>Patient or consumer-oriented instructions</t>
@@ -1975,16 +1975,16 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>77</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2006,28 +2006,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2077,13 +2077,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2120,25 +2120,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2189,19 +2189,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2232,28 +2232,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2303,19 +2303,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2346,7 +2346,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2358,16 +2358,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2393,43 +2393,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2449,18 +2449,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2472,16 +2472,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2531,28 +2531,28 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2563,11 +2563,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2586,16 +2586,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2645,7 +2645,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2666,7 +2666,7 @@
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2700,13 +2700,13 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2745,17 +2745,17 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2767,7 +2767,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2787,43 +2787,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2873,7 +2873,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2882,19 +2882,19 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK10" t="s" s="2">
+      <c r="AL10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2905,40 +2905,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="E11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2989,7 +2989,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2998,10 +2998,10 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -3021,43 +3021,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="E12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="E12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s" s="2">
+      <c r="K12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3107,7 +3107,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3116,10 +3116,10 @@
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>77</v>
@@ -3139,11 +3139,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3156,25 +3156,25 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3223,7 +3223,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3235,7 +3235,7 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
@@ -3244,7 +3244,7 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3275,19 +3275,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3337,7 +3337,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3349,27 +3349,27 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3389,19 +3389,19 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3451,7 +3451,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3463,16 +3463,16 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3503,19 +3503,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3565,7 +3565,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3577,16 +3577,16 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3597,36 +3597,36 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3677,7 +3677,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3689,16 +3689,16 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3709,11 +3709,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3729,16 +3729,16 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3789,7 +3789,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3801,16 +3801,16 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3821,42 +3821,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3905,28 +3905,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3945,31 +3945,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3995,63 +3995,63 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4059,31 +4059,31 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="I21" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4109,55 +4109,55 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4185,22 +4185,22 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4225,14 +4225,14 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4261,19 +4261,19 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4292,25 +4292,25 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4318,76 +4318,76 @@
         <v>77</v>
       </c>
       <c r="P23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Q23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4406,103 +4406,103 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P24" t="s" s="2">
+      <c r="Q24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Q24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4513,39 +4513,39 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4571,67 +4571,67 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4647,19 +4647,19 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4685,14 +4685,14 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4718,30 +4718,30 @@
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4752,29 +4752,29 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4823,28 +4823,28 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4863,28 +4863,28 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4935,68 +4935,68 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5047,68 +5047,68 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5159,39 +5159,39 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5202,25 +5202,25 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5247,92 +5247,92 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5383,71 +5383,71 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5497,71 +5497,71 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5587,55 +5587,55 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5643,11 +5643,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5663,19 +5663,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5725,7 +5725,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5737,19 +5737,19 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5777,16 +5777,16 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5813,14 +5813,14 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5849,7 +5849,7 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
@@ -5858,10 +5858,10 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5889,16 +5889,16 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5949,7 +5949,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5961,7 +5961,7 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
@@ -5970,10 +5970,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6001,19 +6001,19 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6039,14 +6039,14 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6075,19 +6075,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6115,19 +6115,19 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6177,7 +6177,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6189,19 +6189,19 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6232,13 +6232,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6289,7 +6289,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6301,16 +6301,16 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6321,11 +6321,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6344,16 +6344,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6403,7 +6403,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6415,16 +6415,16 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6455,19 +6455,19 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6517,7 +6517,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6529,16 +6529,16 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6549,11 +6549,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6569,22 +6569,22 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6609,14 +6609,14 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6645,27 +6645,27 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6688,13 +6688,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6745,7 +6745,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6757,27 +6757,27 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AK44" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6788,19 +6788,19 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>431</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>432</v>
@@ -6857,25 +6857,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>434</v>
@@ -6983,13 +6983,13 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>440</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>441</v>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -253,6 +256,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>A request for a service to be performed</t>
   </si>
   <si>
@@ -439,6 +446,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ServiceRequest.extension:request-statutReason</t>
+  </si>
+  <si>
     <t>request-statutReason</t>
   </si>
   <si>
@@ -462,6 +472,9 @@
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
   </si>
   <si>
+    <t>ServiceRequest.extension:resident-supervisor</t>
+  </si>
+  <si>
     <t>resident-supervisor</t>
   </si>
   <si>
@@ -476,6 +489,9 @@
   </si>
   <si>
     <t>Refers to the supervisor of the resident practitioner</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:procedure-directedBy</t>
   </si>
   <si>
     <t>procedure-directedBy</t>
@@ -1708,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN46"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1717,46 +1733,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.2578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.48046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="21.2578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1880,19 +1896,22 @@
       <c r="AN1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>75</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
@@ -1900,73 +1919,73 @@
         <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -1975,604 +1994,622 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
@@ -2580,75 +2617,75 @@
         <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2657,36 +2694,39 @@
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>76</v>
       </c>
@@ -2694,71 +2734,71 @@
         <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2767,388 +2807,400 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AK9" t="s" s="2">
+      <c r="AI10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AL9" t="s" s="2">
+      <c r="AI11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AM9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="AI12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3156,77 +3208,77 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3235,36 +3287,39 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
@@ -3272,75 +3327,75 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3349,36 +3404,39 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>174</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3386,75 +3444,75 @@
         <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3463,36 +3521,39 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3500,75 +3561,75 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3577,110 +3638,113 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3689,36 +3753,39 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3726,73 +3793,73 @@
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3801,380 +3868,392 @@
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>223</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4182,77 +4261,77 @@
         <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4261,382 +4340,394 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>274</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4644,1015 +4735,1042 @@
         <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="K26" t="s" s="2">
+      <c r="AI26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>286</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>298</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>308</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>309</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>318</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>315</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>326</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>336</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M33" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>347</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>345</v>
+        <v>234</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5660,75 +5778,75 @@
         <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>356</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M35" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5737,36 +5855,39 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>360</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5774,73 +5895,73 @@
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>364</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>366</v>
+        <v>239</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5849,36 +5970,39 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5886,73 +6010,73 @@
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>370</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5961,36 +6085,39 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5998,75 +6125,75 @@
         <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>374</v>
+        <v>234</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>377</v>
+        <v>239</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6075,36 +6202,39 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>379</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6112,75 +6242,75 @@
         <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6189,36 +6319,39 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>388</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6226,73 +6359,73 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>75</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6301,112 +6434,115 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>395</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6415,36 +6551,39 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>404</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6452,75 +6591,75 @@
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>408</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6529,36 +6668,39 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6566,77 +6708,77 @@
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N43" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6645,36 +6787,39 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>428</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6682,73 +6827,73 @@
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6757,148 +6902,154 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>278</v>
+        <v>432</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>283</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>434</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>431</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>434</v>
+        <v>283</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6906,75 +7057,75 @@
         <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>440</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6983,26 +7134,29 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>440</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>127</v>
+        <v>445</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>441</v>
+        <v>129</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN46">
+  <autoFilter ref="A1:AO46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -855,7 +855,7 @@
     <t>ServiceRequest codes</t>
   </si>
   <si>
-    <t>http://fhir.cqgc.ferlab.bio/ValueSet/analysis-request-code</t>
+    <t>http://fhir.cqgc.ferlab.bio/ValueSet/sequencing-request-code</t>
   </si>
   <si>
     <t>Request.code</t>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -118,129 +118,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
   </si>
   <si>
     <t>diagnostic request
@@ -690,7 +567,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>required</t>
@@ -1208,7 +1085,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1242,7 +1119,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1363,6 +1240,9 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
@@ -1536,10 +1416,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1724,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1738,10 +1618,10 @@
     <col min="3" max="3" width="21.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.2578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1752,5411 +1632,5286 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.94140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.49609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>74</v>
+      <c r="AN1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="M6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>174</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>223</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>248</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q24" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>281</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>274</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>317</v>
+        <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>318</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>326</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>339</v>
+        <v>193</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>347</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>349</v>
+        <v>319</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>353</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>354</v>
+        <v>37</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>348</v>
+        <v>318</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>360</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>361</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>366</v>
+        <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>404</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>409</v>
+        <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>420</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>425</v>
+        <v>37</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>392</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>417</v>
+        <v>242</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>432</v>
+        <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>434</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>283</v>
+        <v>88</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO46">
+  <autoFilter ref="A1:AO45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7166,7 +6921,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="408">
   <si>
     <t>Property</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -1752,16 +1756,16 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>37</v>
@@ -1772,10 +1776,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1786,7 +1790,7 @@
         <v>35</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1795,19 +1799,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1857,13 +1861,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1889,10 +1893,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1903,7 +1907,7 @@
         <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -1912,16 +1916,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1972,19 +1976,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2004,10 +2008,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2018,28 +2022,28 @@
         <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2089,19 +2093,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2121,10 +2125,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2135,7 +2139,7 @@
         <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2147,16 +2151,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2182,13 +2186,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2206,19 +2210,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2238,21 +2242,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2264,16 +2268,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2323,19 +2327,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2344,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>37</v>
@@ -2355,14 +2359,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2381,16 +2385,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2440,7 +2444,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -2461,7 +2465,7 @@
         <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>37</v>
@@ -2472,10 +2476,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2498,13 +2502,13 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2543,17 +2547,17 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -2565,7 +2569,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2585,28 +2589,28 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>37</v>
@@ -2615,16 +2619,16 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2674,7 +2678,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -2683,19 +2687,19 @@
         <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>37</v>
@@ -2706,28 +2710,28 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>37</v>
@@ -2736,13 +2740,13 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2793,7 +2797,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -2802,10 +2806,10 @@
         <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2825,46 +2829,46 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2914,7 +2918,7 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -2923,10 +2927,10 @@
         <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -2946,14 +2950,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2966,25 +2970,25 @@
         <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>37</v>
@@ -3033,7 +3037,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>35</v>
@@ -3045,7 +3049,7 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -3054,7 +3058,7 @@
         <v>37</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>37</v>
@@ -3065,10 +3069,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3088,19 +3092,19 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3150,7 +3154,7 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3162,30 +3166,30 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3205,19 +3209,19 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3267,7 +3271,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -3279,16 +3283,16 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3299,10 +3303,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3322,19 +3326,19 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3384,7 +3388,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -3396,16 +3400,16 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3416,21 +3420,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -3439,16 +3443,16 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3499,7 +3503,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -3511,16 +3515,16 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3531,14 +3535,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3554,16 +3558,16 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3614,7 +3618,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>35</v>
@@ -3626,16 +3630,16 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3646,21 +3650,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3669,22 +3673,22 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -3733,28 +3737,28 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3765,10 +3769,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3776,31 +3780,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3826,13 +3830,13 @@
         <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>37</v>
@@ -3850,42 +3854,42 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3893,31 +3897,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3943,13 +3947,13 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>37</v>
@@ -3967,31 +3971,31 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>37</v>
@@ -3999,10 +4003,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4022,22 +4026,22 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>37</v>
@@ -4062,13 +4066,13 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>37</v>
@@ -4086,7 +4090,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4098,19 +4102,19 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>37</v>
@@ -4118,10 +4122,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4132,7 +4136,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
@@ -4141,16 +4145,16 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4158,7 +4162,7 @@
         <v>37</v>
       </c>
       <c r="Q22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>37</v>
@@ -4179,13 +4183,13 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4203,31 +4207,31 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>37</v>
@@ -4235,10 +4239,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4249,103 +4253,103 @@
         <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>37</v>
@@ -4356,21 +4360,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4379,19 +4383,19 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4417,13 +4421,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -4441,46 +4445,46 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4496,19 +4500,19 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4534,13 +4538,13 @@
         <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>37</v>
@@ -4558,7 +4562,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -4567,33 +4571,33 @@
         <v>36</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4604,7 +4608,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4613,20 +4617,20 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4675,28 +4679,28 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4707,10 +4711,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4718,10 +4722,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4730,16 +4734,16 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4790,53 +4794,53 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -4845,16 +4849,16 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4905,53 +4909,53 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -4960,16 +4964,16 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5020,42 +5024,42 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5066,7 +5070,7 @@
         <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5075,16 +5079,16 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5111,13 +5115,13 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>37</v>
@@ -5135,19 +5139,19 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
@@ -5156,32 +5160,32 @@
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -5190,16 +5194,16 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5250,53 +5254,53 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5305,19 +5309,19 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5367,53 +5371,53 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5422,19 +5426,19 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5460,13 +5464,13 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>37</v>
@@ -5484,31 +5488,31 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>37</v>
@@ -5516,14 +5520,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5539,19 +5543,19 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5601,7 +5605,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -5613,19 +5617,19 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>37</v>
@@ -5633,10 +5637,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5656,16 +5660,16 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5692,13 +5696,13 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>37</v>
@@ -5716,7 +5720,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -5728,7 +5732,7 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -5737,10 +5741,10 @@
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>37</v>
@@ -5748,10 +5752,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5771,16 +5775,16 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5831,7 +5835,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -5843,7 +5847,7 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
@@ -5852,10 +5856,10 @@
         <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>37</v>
@@ -5863,10 +5867,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5886,19 +5890,19 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5924,13 +5928,13 @@
         <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>37</v>
@@ -5948,7 +5952,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -5960,19 +5964,19 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>37</v>
@@ -5980,10 +5984,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6003,19 +6007,19 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6065,7 +6069,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6077,19 +6081,19 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>37</v>
@@ -6097,10 +6101,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6123,13 +6127,13 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6180,7 +6184,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -6192,16 +6196,16 @@
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
@@ -6212,14 +6216,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6238,16 +6242,16 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6297,7 +6301,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -6309,16 +6313,16 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -6329,10 +6333,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6352,19 +6356,19 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6414,7 +6418,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -6426,16 +6430,16 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -6446,14 +6450,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6469,22 +6473,22 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6509,13 +6513,13 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>37</v>
@@ -6533,7 +6537,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -6545,30 +6549,30 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6591,13 +6595,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6648,7 +6652,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -6660,30 +6664,30 @@
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6694,7 +6698,7 @@
         <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6703,16 +6707,16 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6763,28 +6767,28 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -6795,10 +6799,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6821,16 +6825,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6880,7 +6884,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -6892,16 +6896,16 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -118,6 +118,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
   </si>
   <si>
     <t>diagnostic request
@@ -1244,9 +1367,6 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
@@ -1608,7 +1728,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO45"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1622,10 +1742,10 @@
     <col min="3" max="3" width="21.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="21.2578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1636,5286 +1756,5411 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.94140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.49609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>37</v>
+      <c r="L1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="AN13" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>37</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>37</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>234</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>37</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>37</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>324</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>307</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>37</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>37</v>
+        <v>355</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>37</v>
+        <v>361</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>37</v>
+        <v>367</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>37</v>
+        <v>373</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>37</v>
+        <v>383</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>37</v>
+        <v>384</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>37</v>
+        <v>410</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>194</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>37</v>
+        <v>421</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>418</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>395</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>37</v>
+        <v>433</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>37</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO45">
+  <autoFilter ref="A1:AO46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6925,7 +7170,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -694,7 +694,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
   </si>
   <si>
     <t>required</t>
@@ -1212,7 +1212,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1246,7 +1246,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1322,7 +1322,7 @@
     <t>One or more specimens that the laboratory procedure will use.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>SPM</t>

--- a/ig/StructureDefinition-cqgc-sequencing-request.xlsx
+++ b/ig/StructureDefinition-cqgc-sequencing-request.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Cqgc (mailto:support@ferlab.bio)</t>
   </si>
   <si>
     <t>Description</t>
@@ -466,33 +466,33 @@
     <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled".  The reason for performing the request at all is captured in reasonCode, not here.  (Distinct reason codes for different statuses can be enforced using invariants if they are universal bindings).</t>
   </si>
   <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:resident-supervisor</t>
+  </si>
+  <si>
+    <t>resident-supervisor</t>
+  </si>
+  <si>
+    <t>resident_supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/resident-supervisor}
+</t>
+  </si>
+  <si>
+    <t>Resident Supervisor</t>
+  </si>
+  <si>
+    <t>Refers to the supervisor of the resident practitioner</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=CACT, moodCode=EVN].reasonCOde</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension:resident-supervisor</t>
-  </si>
-  <si>
-    <t>resident-supervisor</t>
-  </si>
-  <si>
-    <t>resident_supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.cqgc.ferlab.bio/StructureDefinition/resident-supervisor}
-</t>
-  </si>
-  <si>
-    <t>Resident Supervisor</t>
-  </si>
-  <si>
-    <t>Refers to the supervisor of the resident practitioner</t>
   </si>
   <si>
     <t>ServiceRequest.extension:procedure-directedBy</t>
@@ -2932,7 +2932,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -2941,10 +2941,10 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -2955,19 +2955,19 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -2985,13 +2985,13 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3051,7 +3051,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>138</v>
@@ -3110,7 +3110,7 @@
         <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
         <v>158</v>
@@ -3172,7 +3172,7 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>138</v>
@@ -3534,7 +3534,7 @@
         <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>182</v>
@@ -3651,7 +3651,7 @@
         <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>182</v>
